--- a/大实验/5.20-1.xlsx
+++ b/大实验/5.20-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PHY104BExperiments-of-Fundamental Physics\大实验\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC00E549-B864-470A-AE05-CD033A402A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{007516A5-6670-420D-90A4-551901B1D42C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3740" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="340" yWindow="4080" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -368,12 +368,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D1859"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A1837" workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="24.5" customWidth="1"/>
     <col min="3" max="3" width="37.4140625" customWidth="1"/>
   </cols>
   <sheetData>
